--- a/biology/Zoologie/Eurema_smilax/Eurema_smilax.xlsx
+++ b/biology/Zoologie/Eurema_smilax/Eurema_smilax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema smilax est une espèce d'insectes lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon se nomme en anglais Small Grass Yellow ou Bordered sulfur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Small Grass Yellow ou Bordered sulfur.
 </t>
         </is>
       </c>
@@ -542,13 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus petits que les autres Eurema, le mâle et la femelle d’Eurema smilax sont d'une couleur jaune plus ou moins intense sur les deux faces. L'apex des antérieures est largement bordé de marron foncé à noir sur le dessus.
 Le dessous peut être uniformément jaune ou taché de marron.
-Il existe un dimorphisme lié à la saison[3].
-Chenille
-Les œufs sont blancs se colorant en jaune, la chenille d'abord jaune pâle deviennent vertes.
+Il existe un dimorphisme lié à la saison.
 </t>
         </is>
       </c>
@@ -574,14 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans le Nord de l'Australie, il vole toute l'année. C'est un migrateur dans le Sud et parfois vers des iles proches[3].
-Plantes hôtes
-Ses plantes hôtes sont des Cassias (Cassia fistula, Cassia nemophila, Cassia coronilloides, Cassia eremophila, Cassia fistula, Cassia nemophila, Cassia retusa, Cassia tomentosa) et des Neptunia (Neptunia gracilis, Neptunia monosperma et Neptunia gracilis)[4].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont blancs se colorant en jaune, la chenille d'abord jaune pâle deviennent vertes.
 </t>
         </is>
       </c>
@@ -607,12 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Tasmanie et en Australie[4].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Nord de l'Australie, il vole toute l'année. C'est un migrateur dans le Sud et parfois vers des iles proches.
 </t>
         </is>
       </c>
@@ -638,10 +658,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Cassias (Cassia fistula, Cassia nemophila, Cassia coronilloides, Cassia eremophila, Cassia fistula, Cassia nemophila, Cassia retusa, Cassia tomentosa) et des Neptunia (Neptunia gracilis, Neptunia monosperma et Neptunia gracilis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema_smilax</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_smilax</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Tasmanie et en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurema_smilax</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_smilax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
